--- a/bots/crawl_ch/output/bread_coop_2023-02-03.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2023-02-03.xlsx
@@ -531,7 +531,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -600,7 +600,7 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -742,7 +742,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -815,7 +815,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -1318,7 +1318,7 @@
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -1537,7 +1537,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -1606,7 +1606,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -1675,7 +1675,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -1744,7 +1744,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -1817,7 +1817,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -1890,7 +1890,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -1963,7 +1963,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -2032,7 +2032,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -2174,7 +2174,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -2247,7 +2247,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -2389,7 +2389,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -2462,7 +2462,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -2531,7 +2531,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -2600,7 +2600,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -2669,7 +2669,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -2742,7 +2742,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -2815,7 +2815,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -2888,7 +2888,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -2961,7 +2961,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -3034,7 +3034,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -3107,7 +3107,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -3180,7 +3180,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -3253,7 +3253,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -3326,7 +3326,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -3391,7 +3391,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -3460,7 +3460,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -3529,7 +3529,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -3598,7 +3598,7 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -3671,7 +3671,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -3744,7 +3744,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -3813,7 +3813,7 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -3955,7 +3955,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -4028,7 +4028,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -4170,7 +4170,7 @@
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -4239,7 +4239,7 @@
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -4308,7 +4308,7 @@
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -4381,7 +4381,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -4450,7 +4450,7 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -4519,7 +4519,7 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -4592,7 +4592,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -4665,7 +4665,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -4734,7 +4734,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -4803,7 +4803,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -4876,7 +4876,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -4949,7 +4949,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -5022,7 +5022,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -5091,7 +5091,7 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -5164,7 +5164,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -5237,45 +5237,45 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>6064661</t>
+          <t>6384092</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Huusbrot hell</t>
+          <t>Bauli Croissant Chocolate 6 Stück</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/baeckerei/naturaplan-bio-huusbrot-hell/p/6064661</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/bauli-croissant-chocolate-6-stueck/p/6384092</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E69" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Bauli</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>0.40/100g</t>
+          <t>1.03/100g</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -5285,7 +5285,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -5295,50 +5295,46 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Huusbrot hell 3.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Bauli Croissant Chocolate 6 Stück 3.10 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>6384092</t>
+          <t>5873269</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Bauli Croissant Chocolate 6 Stück</t>
+          <t>Dar-Vida Break Cranberry &amp;amp; Apfel</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/bauli-croissant-chocolate-6-stueck/p/6384092</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/dar-vida-break-cranberry-apfel/p/5873269</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E70" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Bauli</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -5348,7 +5344,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>1.03/100g</t>
+          <t>2.35/100g</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5358,7 +5354,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -5368,56 +5364,56 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>Bauli Croissant Chocolate 6 Stück 3.10 Schweizer Franken</t>
+          <t>Dar-Vida Break Cranberry &amp;amp; Apfel 33% ab 3 Aktion 3.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>5873269</t>
+          <t>6064661</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Dar-Vida Break Cranberry &amp;amp; Apfel</t>
+          <t>Naturaplan Bio Huusbrot hell</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/dar-vida-break-cranberry-apfel/p/5873269</t>
+          <t>/de/lebensmittel/brot-backwaren/baeckerei/naturaplan-bio-huusbrot-hell/p/6064661</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E71" t="n">
         <v>4.5</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2.35/100g</t>
+          <t>0.40/100g</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -5427,7 +5423,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -5437,18 +5433,22 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>Dar-Vida Break Cranberry &amp;amp; Apfel 33% ab 3 Aktion 3.10 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr"/>
+          <t>Naturaplan Bio Huusbrot hell 3.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -5521,7 +5521,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -5594,7 +5594,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -5663,7 +5663,7 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -5732,7 +5732,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -5801,7 +5801,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -5870,7 +5870,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -5939,7 +5939,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -6012,7 +6012,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -6085,7 +6085,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -6158,7 +6158,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -6227,7 +6227,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -6296,7 +6296,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -6365,7 +6365,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -6434,7 +6434,7 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -6507,7 +6507,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -6576,7 +6576,7 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -6649,7 +6649,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -6722,7 +6722,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -6795,7 +6795,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -6864,7 +6864,7 @@
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -6937,7 +6937,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -7006,7 +7006,7 @@
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -7079,7 +7079,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -7148,7 +7148,7 @@
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -7221,7 +7221,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -7290,7 +7290,7 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -7359,7 +7359,7 @@
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -7428,7 +7428,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -7497,7 +7497,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -7566,7 +7566,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -7635,7 +7635,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -7708,7 +7708,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -7781,7 +7781,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -7854,7 +7854,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -7923,7 +7923,7 @@
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -7996,7 +7996,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -8065,7 +8065,7 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -8138,7 +8138,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -8211,7 +8211,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -8284,7 +8284,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -8353,7 +8353,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -8426,7 +8426,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -8495,7 +8495,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -8568,7 +8568,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -8637,7 +8637,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -8706,7 +8706,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -8779,7 +8779,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -8848,7 +8848,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -8921,7 +8921,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -8994,7 +8994,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -9063,7 +9063,7 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -9132,7 +9132,7 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -9201,7 +9201,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -9270,7 +9270,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -9343,7 +9343,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -9416,7 +9416,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -9485,7 +9485,7 @@
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -9558,31 +9558,31 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>6826714</t>
+          <t>6832128</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Prix Garantie Frischback Mehr-korn Baguettes</t>
+          <t>Naturaplan Bio Reiswaffeln Joghurt</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/prix-garantie-frischback-mehr-korn-baguettes/p/6826714</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/naturaplan-bio-reiswaffeln-joghurt/p/6832128</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E130" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -9591,12 +9591,12 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>0.56/100g</t>
+          <t>1.95/100g</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -9606,7 +9606,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -9616,42 +9616,46 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>Prix Garantie Frischback Mehr-korn Baguettes 2.00 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N130" t="inlineStr"/>
+          <t>Naturaplan Bio Reiswaffeln Joghurt 1.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>6832128</t>
+          <t>6826714</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Reiswaffeln Joghurt</t>
+          <t>Prix Garantie Frischback Mehr-korn Baguettes</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/naturaplan-bio-reiswaffeln-joghurt/p/6832128</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/prix-garantie-frischback-mehr-korn-baguettes/p/6826714</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E131" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -9660,12 +9664,12 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>1.95/100g</t>
+          <t>0.56/100g</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -9675,7 +9679,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -9685,22 +9689,18 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Reiswaffeln Joghurt 1.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N131" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Prix Garantie Frischback Mehr-korn Baguettes 2.00 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -9769,7 +9769,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -9842,7 +9842,7 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -9911,7 +9911,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -9980,45 +9980,45 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>6962219</t>
+          <t>3410121</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Old el Paso Wraps Whole Wheats</t>
+          <t>Kirsprolls Vollkorn-Schwedenbrötchen</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-wraps-whole-wheats/p/6962219</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/kirsprolls-vollkorn-schwedenbroetchen/p/3410121</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E136" t="n">
         <v>5</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Krisprolls</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>1.70/100g</t>
+          <t>1.31/100g</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -10028,7 +10028,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -10038,56 +10038,60 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>Old el Paso Wraps Whole Wheats - Online kein Bestand 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N136" t="inlineStr"/>
+          <t>Kirsprolls Vollkorn-Schwedenbrötchen 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>3410121</t>
+          <t>5650918</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Kirsprolls Vollkorn-Schwedenbrötchen</t>
+          <t>Leisi Blätterteig Rustica rund ausgewallt Ø32cm</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/kirsprolls-vollkorn-schwedenbroetchen/p/3410121</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-blaetterteig-rustica-rund-ausgewallt-32cm/p/5650918</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E137" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Krisprolls</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>1.31/100g</t>
+          <t>1.48/100g</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -10097,7 +10101,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -10107,60 +10111,60 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>Kirsprolls Vollkorn-Schwedenbrötchen 2.95 Schweizer Franken</t>
+          <t>Leisi Blätterteig Rustica rund ausgewallt Ø32cm 3.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian', 'lactose_free']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>5650918</t>
+          <t>6962219</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig Rustica rund ausgewallt Ø32cm</t>
+          <t>Old el Paso Wraps Whole Wheats</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-blaetterteig-rustica-rund-ausgewallt-32cm/p/5650918</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-wraps-whole-wheats/p/6962219</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E138" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>1.48/100g</t>
+          <t>1.70/100g</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -10170,7 +10174,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -10180,60 +10184,56 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig Rustica rund ausgewallt Ø32cm 3.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N138" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Old el Paso Wraps Whole Wheats 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>6877241</t>
+          <t>3658651</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Mais Tortillas</t>
+          <t>Mulino Bianco Weizen-Brot</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mais-tortillas/p/6877241</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/mulino-bianco-weizen-brot/p/3658651</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E139" t="n">
         <v>5</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>MASAMOR</t>
+          <t>Mulino Bianco</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>2.38/100g</t>
+          <t>0.58/100g</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -10243,7 +10243,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -10253,60 +10253,56 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>Mais Tortillas 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N139" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Mulino Bianco Weizen-Brot 2.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>3658651</t>
+          <t>4950628</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Mulino Bianco Weizen-Brot</t>
+          <t>Dar-Vida Sandwich Schokolade &amp;amp; Haselnusscrème</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/mulino-bianco-weizen-brot/p/3658651</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/dar-vida-sandwich-schokolade-haselnusscreme/p/4950628</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E140" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Mulino Bianco</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>0.58/100g</t>
+          <t>2.67/100g</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -10316,7 +10312,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -10326,56 +10322,60 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>Mulino Bianco Weizen-Brot 2.30 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N140" t="inlineStr"/>
+          <t>Dar-Vida Sandwich Schokolade &amp;amp; Haselnusscrème 33% ab 3 Aktion 5.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N140" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>4950628</t>
+          <t>6877241</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Dar-Vida Sandwich Schokolade &amp;amp; Haselnusscrème</t>
+          <t>Mais Tortillas</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/dar-vida-sandwich-schokolade-haselnusscreme/p/4950628</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mais-tortillas/p/6877241</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E141" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>MASAMOR</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>2.67/100g</t>
+          <t>2.38/100g</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -10385,7 +10385,7 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -10395,22 +10395,22 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>Dar-Vida Sandwich Schokolade &amp;amp; Haselnusscrème 33% ab 3 Aktion 5.20 Schweizer Franken</t>
+          <t>Mais Tortillas 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
         </is>
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -10483,7 +10483,7 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -10556,7 +10556,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -10629,7 +10629,7 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -10698,7 +10698,7 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -10767,7 +10767,7 @@
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -10840,7 +10840,7 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -10909,7 +10909,7 @@
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -10982,7 +10982,7 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -11051,7 +11051,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -11124,7 +11124,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -11193,7 +11193,7 @@
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -11262,7 +11262,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -11335,7 +11335,7 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -11408,7 +11408,7 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -11477,7 +11477,7 @@
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -11550,7 +11550,7 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -11619,7 +11619,7 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -11692,7 +11692,7 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -11765,7 +11765,7 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -11838,7 +11838,7 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -11907,7 +11907,7 @@
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -11980,7 +11980,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -12049,7 +12049,7 @@
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -12122,7 +12122,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -12191,7 +12191,7 @@
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -12260,7 +12260,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -12329,7 +12329,7 @@
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -12398,7 +12398,7 @@
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -12467,7 +12467,7 @@
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -12536,31 +12536,31 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>4886666</t>
+          <t>6695031</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Cracker Dinkel 5x41g</t>
+          <t>Prix Garantie Erdbeer Roulade</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/naturaplan-bio-cracker-dinkel-5x41g/p/4886666</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-erdbeer-roulade/p/6695031</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="E172" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -12569,12 +12569,12 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>1.80/100g</t>
+          <t>0.65/100g</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -12584,7 +12584,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -12594,56 +12594,56 @@
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Cracker Dinkel 5x41g 3.75 Schweizer Franken</t>
+          <t>Prix Garantie Erdbeer Roulade 2.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>6695031</t>
+          <t>3360446</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Prix Garantie Erdbeer Roulade</t>
+          <t>Old El Paso Maistortillas 8 Stück</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-erdbeer-roulade/p/6695031</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-maistortillas-8-stueck/p/3360446</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E173" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>0.65/100g</t>
+          <t>1.78/100g</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -12653,7 +12653,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -12663,56 +12663,56 @@
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>Prix Garantie Erdbeer Roulade 2.60 Schweizer Franken</t>
+          <t>Old El Paso Maistortillas 8 Stück 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>3360446</t>
+          <t>4886666</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Old El Paso Maistortillas 8 Stück</t>
+          <t>Naturaplan Bio Cracker Dinkel 5x41g</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-maistortillas-8-stueck/p/3360446</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/naturaplan-bio-cracker-dinkel-5x41g/p/4886666</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E174" t="n">
         <v>4.5</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>1.78/100g</t>
+          <t>1.80/100g</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -12722,7 +12722,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -12732,18 +12732,18 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>Old El Paso Maistortillas 8 Stück 5.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Cracker Dinkel 5x41g 3.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -12816,7 +12816,7 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -12885,7 +12885,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -12958,7 +12958,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -13027,7 +13027,7 @@
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -13100,7 +13100,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -13169,7 +13169,7 @@
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -13242,7 +13242,7 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -13311,7 +13311,7 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -13382,7 +13382,7 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -13451,45 +13451,45 @@
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>6601630</t>
+          <t>5989712</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Family Schokolade</t>
+          <t>Wasa Knäckebrot glutenfrei</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-mit-schokolade/schokolade-als-zutat/roland-petite-pause-family-schokolade/p/6601630</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/wasa-knaeckebrot-glutenfrei/p/5989712</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E185" t="n">
         <v>5</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>WASA</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>2.13/100g</t>
+          <t>1.88/100g</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -13499,7 +13499,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -13509,56 +13509,56 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-mit-schokolade', 'schokolade-als-zutat']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Family Schokolade 5.95 Schweizer Franken</t>
+          <t>Wasa Knäckebrot glutenfrei 4.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>5989712</t>
+          <t>6601630</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Wasa Knäckebrot glutenfrei</t>
+          <t>Roland Petite Pause Family Schokolade</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/wasa-knaeckebrot-glutenfrei/p/5989712</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-mit-schokolade/schokolade-als-zutat/roland-petite-pause-family-schokolade/p/6601630</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E186" t="n">
         <v>5</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>WASA</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>1.88/100g</t>
+          <t>2.13/100g</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -13568,7 +13568,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -13578,18 +13578,18 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-mit-schokolade', 'schokolade-als-zutat']</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>Wasa Knäckebrot glutenfrei 4.50 Schweizer Franken</t>
+          <t>Roland Petite Pause Family Schokolade 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -13662,7 +13662,7 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -13731,7 +13731,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -13804,7 +13804,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -13873,7 +13873,7 @@
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -13946,7 +13946,7 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -14013,31 +14013,31 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>3584790</t>
+          <t>6628849</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Fine Food Engadiner Birnbrot</t>
+          <t>Betty Bossi Grossmutters Schoggi Cake</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/fine-food-engadiner-birnbrot/p/3584790</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-grossmutters-schoggi-cake/p/6628849</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="E193" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
@@ -14046,12 +14046,12 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>2.31/100g</t>
+          <t>1.83/100g</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
@@ -14061,7 +14061,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -14071,39 +14071,39 @@
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>Fine Food Engadiner Birnbrot 9.95 Schweizer Franken</t>
+          <t>Betty Bossi Grossmutters Schoggi Cake 2.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>6628849</t>
+          <t>6080763</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Betty Bossi Grossmutters Schoggi Cake</t>
+          <t>Naturaplan Bio Cracker Rosmarin &amp;amp; Quinoa</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-grossmutters-schoggi-cake/p/6628849</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/naturaplan-bio-cracker-rosmarin-quinoa/p/6080763</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E194" t="n">
         <v>5</v>
@@ -14115,12 +14115,12 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>1.83/100g</t>
+          <t>1.59/100g</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
@@ -14130,7 +14130,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -14140,56 +14140,56 @@
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>Betty Bossi Grossmutters Schoggi Cake 2.20 Schweizer Franken</t>
+          <t>Naturaplan Bio Cracker Rosmarin &amp;amp; Quinoa 3.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>6080763</t>
+          <t>3726503</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Cracker Rosmarin &amp;amp; Quinoa</t>
+          <t>Pasquier Schokobrötchen 16 Stück</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/naturaplan-bio-cracker-rosmarin-quinoa/p/6080763</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-schokobroetchen-16-stueck/p/3726503</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E195" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Pasquier</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>1.59/100g</t>
+          <t>1.18/100g</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
@@ -14199,7 +14199,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -14209,56 +14209,56 @@
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Cracker Rosmarin &amp;amp; Quinoa 3.30 Schweizer Franken</t>
+          <t>Pasquier Schokobrötchen 16 Stück 8.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>3726503</t>
+          <t>3584790</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Pasquier Schokobrötchen 16 Stück</t>
+          <t>Fine Food Engadiner Birnbrot</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-schokobroetchen-16-stueck/p/3726503</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/fine-food-engadiner-birnbrot/p/3584790</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="E196" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Pasquier</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>1.18/100g</t>
+          <t>2.31/100g</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
@@ -14268,7 +14268,7 @@
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -14283,13 +14283,13 @@
       </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t>Pasquier Schokobrötchen 16 Stück 8.50 Schweizer Franken</t>
+          <t>Fine Food Engadiner Birnbrot 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -14362,7 +14362,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -14435,7 +14435,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -14508,7 +14508,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -14577,7 +14577,7 @@
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -14646,7 +14646,7 @@
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -14719,45 +14719,45 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>3602932</t>
+          <t>6723241</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Vollkorn Brotkörbchen 10 Portionen</t>
+          <t>Old el Paso Tortilla XL Glutenfree 4 Stück</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/vollkorn-brotkoerbchen-10-portionen/p/3602932</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-tortilla-xl-glutenfree-4-stueck/p/6723241</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E203" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Mestemacher</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>0.90/100g</t>
+          <t>3.02/100g</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
@@ -14767,7 +14767,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -14777,56 +14777,60 @@
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>Vollkorn Brotkörbchen 10 Portionen 4.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N203" t="inlineStr"/>
+          <t>Old el Paso Tortilla XL Glutenfree 4 Stück 6.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N203" t="inlineStr">
+        <is>
+          <t>['vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>6723241</t>
+          <t>3602932</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Old el Paso Tortilla XL Glutenfree 4 Stück</t>
+          <t>Vollkorn Brotkörbchen 10 Portionen</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-tortilla-xl-glutenfree-4-stueck/p/6723241</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/vollkorn-brotkoerbchen-10-portionen/p/3602932</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="E204" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Mestemacher</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>3.02/100g</t>
+          <t>0.90/100g</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -14836,7 +14840,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -14846,60 +14850,56 @@
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t>Old el Paso Tortilla XL Glutenfree 4 Stück 6.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N204" t="inlineStr">
-        <is>
-          <t>['vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Vollkorn Brotkörbchen 10 Portionen 4.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>6869974</t>
+          <t>3909255</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Roland Knäckers Sesam &amp;amp; Chia</t>
+          <t>Schär Knusperbrot glutenfrei</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckers-sesam-chia/p/6869974</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/schaer-knusperbrot-glutenfrei/p/3909255</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E205" t="n">
         <v>5</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>2.32/100g</t>
+          <t>1.80/100g</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
@@ -14909,7 +14909,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -14924,55 +14924,55 @@
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>Roland Knäckers Sesam &amp;amp; Chia 3.25 Schweizer Franken</t>
+          <t>Schär Knusperbrot glutenfrei 2.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N205" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian', 'gluten_free', 'lactose_free']</t>
+          <t>['gluten_free', 'lactose_free']</t>
         </is>
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>4234741</t>
+          <t>6869974</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Vollkorn-Toast</t>
+          <t>Roland Knäckers Sesam &amp;amp; Chia</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/toastbrote-buns/naturaplan-bio-vollkorn-toast/p/4234741</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckers-sesam-chia/p/6869974</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E206" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>0.66/100g</t>
+          <t>2.32/100g</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -14982,7 +14982,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -14992,60 +14992,60 @@
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'toastbrote-buns']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Vollkorn-Toast 34% Aktion 3.30 Schweizer Franken statt 5.00 Schweizer Franken</t>
+          <t>Roland Knäckers Sesam &amp;amp; Chia 3.25 Schweizer Franken</t>
         </is>
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['vegan', 'vegetarian', 'gluten_free', 'lactose_free']</t>
         </is>
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>3909255</t>
+          <t>4234741</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Schär Knusperbrot glutenfrei</t>
+          <t>Naturaplan Bio Vollkorn-Toast</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/schaer-knusperbrot-glutenfrei/p/3909255</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/toastbrote-buns/naturaplan-bio-vollkorn-toast/p/4234741</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E207" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>1.80/100g</t>
+          <t>0.66/100g</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
@@ -15055,7 +15055,7 @@
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -15065,22 +15065,22 @@
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'toastbrote-buns']</t>
         </is>
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>Schär Knusperbrot glutenfrei 2.70 Schweizer Franken</t>
+          <t>Naturaplan Bio Vollkorn-Toast 34% Aktion 3.30 Schweizer Franken statt 5.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>['gluten_free', 'lactose_free']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -15153,7 +15153,7 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -15226,7 +15226,7 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -15295,7 +15295,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -15364,7 +15364,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -15433,7 +15433,7 @@
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -15502,7 +15502,7 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -15571,45 +15571,45 @@
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>6989304</t>
+          <t>3040399</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>JaMaDu Jungle Cracker Randen</t>
+          <t>Dèlifrance Frischback Baguettes Classique 2 Stück</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/jamadu-jungle-cracker-randen/p/6989304</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/delifrance-frischback-baguettes-classique-2-stueck/p/3040399</t>
         </is>
       </c>
       <c r="D215" t="n">
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="E215" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Délifrance</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>2.46/100g</t>
+          <t>0.78/100g</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
@@ -15619,7 +15619,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -15629,56 +15629,56 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M215" t="inlineStr">
         <is>
-          <t>JaMaDu Jungle Cracker Randen 3.20 Schweizer Franken</t>
+          <t>Dèlifrance Frischback Baguettes Classique 2 Stück 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>3040399</t>
+          <t>7027777</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Dèlifrance Frischback Baguettes Classique 2 Stück</t>
+          <t>Le Pain des fleurs Bio Buchweizen</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/delifrance-frischback-baguettes-classique-2-stueck/p/3040399</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/le-pain-des-fleurs-bio-buchweizen/p/7027777</t>
         </is>
       </c>
       <c r="D216" t="n">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="E216" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Délifrance</t>
+          <t>Le Pain des fleurs</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>0.78/100g</t>
+          <t>2.13/100g</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -15698,56 +15698,60 @@
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M216" t="inlineStr">
         <is>
-          <t>Dèlifrance Frischback Baguettes Classique 2 Stück 1.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N216" t="inlineStr"/>
+          <t>Le Pain des fleurs Bio Buchweizen 3.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N216" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>7027777</t>
+          <t>3041815</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Buchweizen</t>
+          <t>Hug Zwieback Original 250G</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/le-pain-des-fleurs-bio-buchweizen/p/7027777</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/hug-zwieback-original-250g/p/3041815</t>
         </is>
       </c>
       <c r="D217" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="E217" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs</t>
+          <t>Hug</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>2.13/100g</t>
+          <t>1.68/100g</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
@@ -15757,7 +15761,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -15767,60 +15771,56 @@
       </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
         </is>
       </c>
       <c r="M217" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Buchweizen 3.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N217" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Hug Zwieback Original 250G 4.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>3041815</t>
+          <t>6989304</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Hug Zwieback Original 250G</t>
+          <t>JaMaDu Jungle Cracker Randen</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/hug-zwieback-original-250g/p/3041815</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/jamadu-jungle-cracker-randen/p/6989304</t>
         </is>
       </c>
       <c r="D218" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="E218" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Hug</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>1.68/100g</t>
+          <t>2.46/100g</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
@@ -15830,7 +15830,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -15840,18 +15840,18 @@
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="M218" t="inlineStr">
         <is>
-          <t>Hug Zwieback Original 250G 4.20 Schweizer Franken</t>
+          <t>JaMaDu Jungle Cracker Randen 3.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -15920,7 +15920,7 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -15993,7 +15993,7 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -16062,45 +16062,45 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>6762461</t>
+          <t>6348879</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Bischofberger Biber Vegan</t>
+          <t>Buitoni Pizzateig mit Olivenöl Rund Ausgewallt Ø24cm</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bischofberger-biber-vegan/p/6762461</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/buitoni-pizzateig-mit-olivenoel-rund-ausgewallt-24cm/p/6348879</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E222" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Zweifel</t>
+          <t>Buitoni</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>3.00/100g</t>
+          <t>1.41/100g</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
@@ -16110,7 +16110,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -16120,50 +16120,50 @@
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M222" t="inlineStr">
         <is>
-          <t>Bischofberger Biber Vegan 1.80 Schweizer Franken</t>
+          <t>Buitoni Pizzateig mit Olivenöl Rund Ausgewallt Ø24cm 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N222" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian', 'lactose_free']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>6348879</t>
+          <t>6738706</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig mit Olivenöl Rund Ausgewallt Ø24cm</t>
+          <t>Dar-Vida extra fin Mais Taco</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/buitoni-pizzateig-mit-olivenoel-rund-ausgewallt-24cm/p/6348879</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/dar-vida-extra-fin-mais-taco/p/6738706</t>
         </is>
       </c>
       <c r="D223" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E223" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Buitoni</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -16173,7 +16173,7 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>1.41/100g</t>
+          <t>2.15/100g</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
@@ -16183,7 +16183,7 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -16193,60 +16193,56 @@
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M223" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig mit Olivenöl Rund Ausgewallt Ø24cm 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N223" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Dar-Vida extra fin Mais Taco 33% ab 3 Aktion 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>6738706</t>
+          <t>6762461</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Dar-Vida extra fin Mais Taco</t>
+          <t>Bischofberger Biber Vegan</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/dar-vida-extra-fin-mais-taco/p/6738706</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bischofberger-biber-vegan/p/6762461</t>
         </is>
       </c>
       <c r="D224" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E224" t="n">
         <v>4.5</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Zweifel</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>2.15/100g</t>
+          <t>3.00/100g</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
@@ -16256,7 +16252,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -16266,18 +16262,22 @@
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M224" t="inlineStr">
         <is>
-          <t>Dar-Vida extra fin Mais Taco 33% ab 3 Aktion 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N224" t="inlineStr"/>
+          <t>Bischofberger Biber Vegan 1.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N224" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -16350,7 +16350,7 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -16423,7 +16423,7 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -16496,7 +16496,7 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -16569,7 +16569,7 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -16636,7 +16636,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -16705,7 +16705,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -16774,7 +16774,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -16841,7 +16841,7 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -16910,7 +16910,7 @@
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -16983,7 +16983,7 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -17052,45 +17052,45 @@
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>4967195</t>
+          <t>6575244</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Bonne Maman Financier Mandeln</t>
+          <t>Old el Paso Fajita mix Gluten Free</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-financier-mandeln/p/4967195</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-fajita-mix-gluten-free/p/6575244</t>
         </is>
       </c>
       <c r="D236" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E236" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>Bonne Maman</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>3.14/100g</t>
+          <t>5.33/100g</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
@@ -17100,7 +17100,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>5.33</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -17110,56 +17110,60 @@
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M236" t="inlineStr">
         <is>
-          <t>Bonne Maman Financier Mandeln 5.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N236" t="inlineStr"/>
+          <t>Old el Paso Fajita mix Gluten Free 1.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N236" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>6575244</t>
+          <t>4967195</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Old el Paso Fajita mix Gluten Free</t>
+          <t>Bonne Maman Financier Mandeln</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-fajita-mix-gluten-free/p/6575244</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-financier-mandeln/p/4967195</t>
         </is>
       </c>
       <c r="D237" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E237" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Bonne Maman</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>5.33/100g</t>
+          <t>3.14/100g</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
@@ -17169,7 +17173,7 @@
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -17179,22 +17183,18 @@
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M237" t="inlineStr">
         <is>
-          <t>Old el Paso Fajita mix Gluten Free 1.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N237" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Bonne Maman Financier Mandeln 5.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -17263,45 +17263,45 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>4063481</t>
+          <t>6629343</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Lu Prince Cake &amp;amp; Choc 5 Stück</t>
+          <t>Schokoladen Cake</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/lu-prince-cake-choc-5-stueck/p/4063481</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schokoladen-cake/p/6629343</t>
         </is>
       </c>
       <c r="D239" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E239" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>Lu</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>2.63/100g</t>
+          <t>0.89/100g</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
@@ -17311,7 +17311,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -17326,51 +17326,51 @@
       </c>
       <c r="M239" t="inlineStr">
         <is>
-          <t>Lu Prince Cake &amp;amp; Choc 5 Stück 3.95 Schweizer Franken</t>
+          <t>Schokoladen Cake 6.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>6629343</t>
+          <t>4063481</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Schokoladen Cake</t>
+          <t>Lu Prince Cake &amp;amp; Choc 5 Stück</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schokoladen-cake/p/6629343</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/lu-prince-cake-choc-5-stueck/p/4063481</t>
         </is>
       </c>
       <c r="D240" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E240" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Lu</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>0.89/100g</t>
+          <t>2.63/100g</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
@@ -17380,7 +17380,7 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -17395,13 +17395,13 @@
       </c>
       <c r="M240" t="inlineStr">
         <is>
-          <t>Schokoladen Cake 6.20 Schweizer Franken</t>
+          <t>Lu Prince Cake &amp;amp; Choc 5 Stück 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -17474,7 +17474,7 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -17543,43 +17543,45 @@
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>6629583</t>
+          <t>6150311</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Marmor Cake</t>
+          <t>St.Michel Doonuts mit Schokolade überzogen 6 Stück</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/marmor-cake/p/6629583</t>
-        </is>
-      </c>
-      <c r="D243" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/stmichel-doonuts-mit-schokolade-ueberzogen-6-stueck/p/6150311</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>10</v>
+      </c>
       <c r="E243" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>St Michel</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>0.89/100g</t>
+          <t>1.64/100g</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
@@ -17589,7 +17591,7 @@
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -17604,37 +17606,35 @@
       </c>
       <c r="M243" t="inlineStr">
         <is>
-          <t>Marmor Cake 6.20 Schweizer Franken</t>
+          <t>St.Michel Doonuts mit Schokolade überzogen 6 Stück 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>6528382</t>
+          <t>6629583</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Prix Garantie Madeleines Marmorizzate</t>
+          <t>Marmor Cake</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-madeleines-marmorizzate/p/6528382</t>
-        </is>
-      </c>
-      <c r="D244" t="n">
-        <v>6</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/marmor-cake/p/6629583</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr"/>
       <c r="E244" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F244" t="inlineStr">
         <is>
@@ -17643,12 +17643,12 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>0.56/100g</t>
+          <t>0.89/100g</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
@@ -17658,7 +17658,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -17673,51 +17673,51 @@
       </c>
       <c r="M244" t="inlineStr">
         <is>
-          <t>Prix Garantie Madeleines Marmorizzate 2.80 Schweizer Franken</t>
+          <t>Marmor Cake 6.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>6150311</t>
+          <t>6528382</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>St.Michel Doonuts mit Schokolade überzogen 6 Stück</t>
+          <t>Prix Garantie Madeleines Marmorizzate</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/stmichel-doonuts-mit-schokolade-ueberzogen-6-stueck/p/6150311</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-madeleines-marmorizzate/p/6528382</t>
         </is>
       </c>
       <c r="D245" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E245" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>St Michel</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>1.64/100g</t>
+          <t>0.56/100g</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
@@ -17727,7 +17727,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -17742,13 +17742,13 @@
       </c>
       <c r="M245" t="inlineStr">
         <is>
-          <t>St.Michel Doonuts mit Schokolade überzogen 6 Stück 2.95 Schweizer Franken</t>
+          <t>Prix Garantie Madeleines Marmorizzate 2.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -17821,7 +17821,7 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -17890,7 +17890,7 @@
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -17959,7 +17959,7 @@
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -18032,7 +18032,7 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -18101,7 +18101,7 @@
       <c r="N250" t="inlineStr"/>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -18170,45 +18170,45 @@
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>3446126</t>
+          <t>5722124</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Old El Paso Enchilada Kit</t>
+          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-enchilada-kit/p/3446126</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/pizzateig-pastateig/buitoni-pizzateig-glutenfrei-ohne-lactose-rund-ausgewallt-25cm/p/5722124</t>
         </is>
       </c>
       <c r="D252" t="n">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="E252" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Buitoni</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>1.17/100g</t>
+          <t>1.90/100g</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
@@ -18218,7 +18218,7 @@
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -18228,56 +18228,60 @@
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'pizzateig-pastateig']</t>
         </is>
       </c>
       <c r="M252" t="inlineStr">
         <is>
-          <t>Old El Paso Enchilada Kit 7.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N252" t="inlineStr"/>
+          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N252" t="inlineStr">
+        <is>
+          <t>['chilled', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>5732888</t>
+          <t>3446126</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Schär Panini Rolls glutenfrei 3x75g</t>
+          <t>Old El Paso Enchilada Kit</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/schaer-panini-rolls-glutenfrei-3x75g/p/5732888</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-enchilada-kit/p/3446126</t>
         </is>
       </c>
       <c r="D253" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E253" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>1.82/100g</t>
+          <t>1.17/100g</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
@@ -18287,7 +18291,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -18297,60 +18301,56 @@
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M253" t="inlineStr">
         <is>
-          <t>Schär Panini Rolls glutenfrei 3x75g 4.10 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N253" t="inlineStr">
-        <is>
-          <t>['gluten_free', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Old El Paso Enchilada Kit 7.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>5722124</t>
+          <t>5732888</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm</t>
+          <t>Schär Panini Rolls glutenfrei 3x75g</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/pizzateig-pastateig/buitoni-pizzateig-glutenfrei-ohne-lactose-rund-ausgewallt-25cm/p/5722124</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/schaer-panini-rolls-glutenfrei-3x75g/p/5732888</t>
         </is>
       </c>
       <c r="D254" t="n">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="E254" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>Buitoni</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>1.90/100g</t>
+          <t>1.82/100g</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
@@ -18360,7 +18360,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -18370,22 +18370,22 @@
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'pizzateig-pastateig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M254" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm 4.95 Schweizer Franken</t>
+          <t>Schär Panini Rolls glutenfrei 3x75g 4.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="N254" t="inlineStr">
         <is>
-          <t>['chilled', 'gluten_free']</t>
+          <t>['gluten_free', 'lactose_free']</t>
         </is>
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -18454,31 +18454,31 @@
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>6667340</t>
+          <t>5653528</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Karma Bio Steinofenbrot mit Hanf</t>
+          <t>Betty Bossi Tortenboden hell</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/karma-bio-steinofenbrot-mit-hanf/p/6667340</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/betty-bossi-tortenboden-hell/p/5653528</t>
         </is>
       </c>
       <c r="D256" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E256" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F256" t="inlineStr">
         <is>
@@ -18487,12 +18487,12 @@
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>1.31/100g</t>
+          <t>1.16/100g</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
@@ -18502,7 +18502,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -18512,22 +18512,22 @@
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
         </is>
       </c>
       <c r="M256" t="inlineStr">
         <is>
-          <t>Karma Bio Steinofenbrot mit Hanf 4.20 Schweizer Franken</t>
+          <t>Betty Bossi Tortenboden hell 3.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N256" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -18600,45 +18600,45 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>5653528</t>
+          <t>6313768</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Betty Bossi Tortenboden hell</t>
+          <t>Roland Petite Pause Choco Céréales</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/betty-bossi-tortenboden-hell/p/5653528</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-mit-schokolade/schokolade-als-zutat/roland-petite-pause-choco-cereales/p/6313768</t>
         </is>
       </c>
       <c r="D258" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E258" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>1.16/100g</t>
+          <t>2.67/100g</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
@@ -18648,7 +18648,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -18658,60 +18658,56 @@
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-mit-schokolade', 'schokolade-als-zutat']</t>
         </is>
       </c>
       <c r="M258" t="inlineStr">
         <is>
-          <t>Betty Bossi Tortenboden hell 3.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N258" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Roland Petite Pause Choco Céréales 2.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>6313768</t>
+          <t>6667340</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Choco Céréales</t>
+          <t>Karma Bio Steinofenbrot mit Hanf</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-mit-schokolade/schokolade-als-zutat/roland-petite-pause-choco-cereales/p/6313768</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/karma-bio-steinofenbrot-mit-hanf/p/6667340</t>
         </is>
       </c>
       <c r="D259" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E259" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>2.67/100g</t>
+          <t>1.31/100g</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
@@ -18721,7 +18717,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -18731,18 +18727,22 @@
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-mit-schokolade', 'schokolade-als-zutat']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M259" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Choco Céréales 2.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N259" t="inlineStr"/>
+          <t>Karma Bio Steinofenbrot mit Hanf 4.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N259" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -18811,7 +18811,7 @@
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -18884,7 +18884,7 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -18953,7 +18953,7 @@
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -19022,45 +19022,45 @@
       <c r="N263" t="inlineStr"/>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>7059921</t>
+          <t>6150312</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Roland Knäckebrot Linsen-Protein</t>
+          <t>St.Michel Brownies blanc Mini</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckebrot-linsen-protein/p/7059921</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/stmichel-brownies-blanc-mini/p/6150312</t>
         </is>
       </c>
       <c r="D264" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E264" t="n">
         <v>5</v>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>St Michel</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>2.33/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
@@ -19070,7 +19070,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -19080,60 +19080,56 @@
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M264" t="inlineStr">
         <is>
-          <t>Roland Knäckebrot Linsen-Protein 4.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N264" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>St.Michel Brownies blanc Mini 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>6150312</t>
+          <t>7059921</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>St.Michel Brownies blanc Mini</t>
+          <t>Roland Knäckebrot Linsen-Protein</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/stmichel-brownies-blanc-mini/p/6150312</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckebrot-linsen-protein/p/7059921</t>
         </is>
       </c>
       <c r="D265" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E265" t="n">
         <v>5</v>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>St Michel</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>2.33/100g</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
@@ -19143,7 +19139,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -19153,18 +19149,22 @@
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M265" t="inlineStr">
         <is>
-          <t>St.Michel Brownies blanc Mini 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N265" t="inlineStr"/>
+          <t>Roland Knäckebrot Linsen-Protein 4.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N265" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -19233,7 +19233,7 @@
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -19304,7 +19304,7 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -19377,7 +19377,7 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -19446,7 +19446,7 @@
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -19515,31 +19515,31 @@
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>6863658</t>
+          <t>6338743</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Country Cracker Thymian Stange</t>
+          <t>Country Cracker Honig</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-thymian-stange/p/6863658</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-honig/p/6338743</t>
         </is>
       </c>
       <c r="D271" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E271" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F271" t="inlineStr">
         <is>
@@ -19548,12 +19548,12 @@
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>1.12/100g</t>
+          <t>1.58/100g</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
@@ -19563,7 +19563,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -19578,51 +19578,51 @@
       </c>
       <c r="M271" t="inlineStr">
         <is>
-          <t>Country Cracker Thymian Stange 3.30 Schweizer Franken</t>
+          <t>Country Cracker Honig 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>6338743</t>
+          <t>6680943</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Country Cracker Honig</t>
+          <t>Pasquier Pancakes Choco 10 Stück</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-honig/p/6338743</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-pancakes-choco-10-stueck/p/6680943</t>
         </is>
       </c>
       <c r="D272" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E272" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Pasquier</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>1.58/100g</t>
+          <t>1.23/100g</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
@@ -19632,7 +19632,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -19642,56 +19642,56 @@
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M272" t="inlineStr">
         <is>
-          <t>Country Cracker Honig 3.60 Schweizer Franken</t>
+          <t>Pasquier Pancakes Choco 10 Stück 4.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N272" t="inlineStr"/>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>6680943</t>
+          <t>6729458</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Pasquier Pancakes Choco 10 Stück</t>
+          <t>Roland Sport High Protein Choco</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-pancakes-choco-10-stueck/p/6680943</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/roland-sport-high-protein-choco/p/6729458</t>
         </is>
       </c>
       <c r="D273" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E273" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>Pasquier</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>1.23/100g</t>
+          <t>3.56/100g</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
@@ -19701,7 +19701,7 @@
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -19711,56 +19711,56 @@
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="M273" t="inlineStr">
         <is>
-          <t>Pasquier Pancakes Choco 10 Stück 4.30 Schweizer Franken</t>
+          <t>Roland Sport High Protein Choco 4.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>6729458</t>
+          <t>6863658</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Roland Sport High Protein Choco</t>
+          <t>Country Cracker Thymian Stange</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/roland-sport-high-protein-choco/p/6729458</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-thymian-stange/p/6863658</t>
         </is>
       </c>
       <c r="D274" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E274" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>3.56/100g</t>
+          <t>1.12/100g</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
@@ -19770,7 +19770,7 @@
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -19780,40 +19780,42 @@
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M274" t="inlineStr">
         <is>
-          <t>Roland Sport High Protein Choco 4.80 Schweizer Franken</t>
+          <t>Country Cracker Thymian Stange 3.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>6832049</t>
+          <t>6109575</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Reiswaffeln Joghurt &amp;amp; Erdbeeren</t>
+          <t>Naturaplan Bio Linzertorte mit Herz</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/naturaplan-bio-reiswaffeln-joghurt-erdbeeren/p/6832049</t>
-        </is>
-      </c>
-      <c r="D275" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-linzertorte-mit-herz/p/6109575</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>17</v>
+      </c>
       <c r="E275" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F275" t="inlineStr">
         <is>
@@ -19822,12 +19824,12 @@
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>6.80</t>
         </is>
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>1.95/100g</t>
+          <t>2.13/100g</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
@@ -19837,7 +19839,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -19847,60 +19849,54 @@
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M275" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Reiswaffeln Joghurt &amp;amp; Erdbeeren - Online kein Bestand 1.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N275" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Linzertorte mit Herz 20% Aktion 6.80 Schweizer Franken statt 8.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>6109575</t>
+          <t>7038595</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Linzertorte mit Herz</t>
+          <t>Riduto Crisp Bread Kräuter</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-linzertorte-mit-herz/p/6109575</t>
-        </is>
-      </c>
-      <c r="D276" t="n">
-        <v>17</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-kraeuter/p/7038595</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr"/>
       <c r="E276" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>RIDUTO</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>6.80</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>2.13/100g</t>
+          <t>2.27/100g</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
@@ -19910,7 +19906,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -19920,54 +19916,56 @@
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M276" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Linzertorte mit Herz 20% Aktion 6.80 Schweizer Franken statt 8.50 Schweizer Franken</t>
+          <t>Riduto Crisp Bread Kräuter 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>7038595</t>
+          <t>4234829</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Kräuter</t>
+          <t>Schär Wraps glutenfrei 2x80g</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-kraeuter/p/7038595</t>
-        </is>
-      </c>
-      <c r="D277" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/schaer-wraps-glutenfrei-2x80g/p/4234829</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>23</v>
+      </c>
       <c r="E277" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>RIDUTO</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>2.27/100g</t>
+          <t>3.09/100g</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
@@ -19977,7 +19975,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -19987,56 +19985,58 @@
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M277" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Kräuter 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N277" t="inlineStr"/>
+          <t>Schär Wraps glutenfrei 2x80g 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N277" t="inlineStr">
+        <is>
+          <t>['gluten_free', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>4234829</t>
+          <t>6832049</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Schär Wraps glutenfrei 2x80g</t>
+          <t>Naturaplan Bio Reiswaffeln Joghurt &amp;amp; Erdbeeren</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/schaer-wraps-glutenfrei-2x80g/p/4234829</t>
-        </is>
-      </c>
-      <c r="D278" t="n">
-        <v>23</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/naturaplan-bio-reiswaffeln-joghurt-erdbeeren/p/6832049</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr"/>
       <c r="E278" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>3.09/100g</t>
+          <t>1.95/100g</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
@@ -20046,7 +20046,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -20056,22 +20056,22 @@
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M278" t="inlineStr">
         <is>
-          <t>Schär Wraps glutenfrei 2x80g 4.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Reiswaffeln Joghurt &amp;amp; Erdbeeren 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N278" t="inlineStr">
         <is>
-          <t>['gluten_free', 'lactose_free']</t>
+          <t>['gluten_free']</t>
         </is>
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -20140,7 +20140,7 @@
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -20207,45 +20207,43 @@
       <c r="N280" t="inlineStr"/>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>3845685</t>
+          <t>7037702</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Slow Food Roggenbrot</t>
+          <t>Riduto Crisp Bread Oliven &amp;amp; Knoblauch</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/slow-food-roggenbrot/p/3845685</t>
-        </is>
-      </c>
-      <c r="D281" t="n">
-        <v>40</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-oliven-knoblauch/p/7037702</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr"/>
       <c r="E281" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>RIDUTO</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>0.90/100g</t>
+          <t>2.27/100g</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
@@ -20255,7 +20253,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -20265,54 +20263,56 @@
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M281" t="inlineStr">
         <is>
-          <t>Slow Food Roggenbrot 4.50 Schweizer Franken</t>
+          <t>Riduto Crisp Bread Oliven &amp;amp; Knoblauch 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>7037702</t>
+          <t>3845685</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Oliven &amp;amp; Knoblauch</t>
+          <t>Slow Food Roggenbrot</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-oliven-knoblauch/p/7037702</t>
-        </is>
-      </c>
-      <c r="D282" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/slow-food-roggenbrot/p/3845685</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>41</v>
+      </c>
       <c r="E282" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>RIDUTO</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>2.27/100g</t>
+          <t>0.90/100g</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
@@ -20322,7 +20322,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -20332,18 +20332,18 @@
       </c>
       <c r="L282" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M282" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Oliven &amp;amp; Knoblauch 2.95 Schweizer Franken</t>
+          <t>Slow Food Roggenbrot 4.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -20412,45 +20412,45 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>6869975</t>
+          <t>5910012</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Roland Knäckers Nature</t>
+          <t>Country Cracker Nature</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckers-nature/p/6869975</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/country-cracker-nature/p/5910012</t>
         </is>
       </c>
       <c r="D284" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E284" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>2.32/100g</t>
+          <t>1.51/100g</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
@@ -20460,7 +20460,7 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -20470,56 +20470,56 @@
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M284" t="inlineStr">
         <is>
-          <t>Roland Knäckers Nature 3.25 Schweizer Franken</t>
+          <t>Country Cracker Nature 3.45 Schweizer Franken</t>
         </is>
       </c>
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>5910012</t>
+          <t>6869975</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Country Cracker Nature</t>
+          <t>Roland Knäckers Nature</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/country-cracker-nature/p/5910012</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckers-nature/p/6869975</t>
         </is>
       </c>
       <c r="D285" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E285" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>1.51/100g</t>
+          <t>2.32/100g</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
@@ -20529,7 +20529,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -20539,18 +20539,18 @@
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M285" t="inlineStr">
         <is>
-          <t>Country Cracker Nature 3.45 Schweizer Franken</t>
+          <t>Roland Knäckers Nature 3.25 Schweizer Franken</t>
         </is>
       </c>
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -20619,7 +20619,7 @@
       <c r="N286" t="inlineStr"/>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -20688,28 +20688,28 @@
       <c r="N287" t="inlineStr"/>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>6630295</t>
+          <t>6635317</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Country Cracker Banane-Choco</t>
+          <t>Prix Garantie Kakao Roulade</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/country-cracker-banane-choco/p/6630295</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-kakao-roulade/p/6635317</t>
         </is>
       </c>
       <c r="D288" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E288" t="n">
         <v>5</v>
@@ -20721,12 +20721,12 @@
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>1.64/100g</t>
+          <t>0.65/100g</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
@@ -20736,7 +20736,7 @@
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
@@ -20746,54 +20746,56 @@
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M288" t="inlineStr">
         <is>
-          <t>Country Cracker Banane-Choco 3.75 Schweizer Franken</t>
+          <t>Prix Garantie Kakao Roulade 2.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>7038624</t>
+          <t>6630295</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Rande</t>
+          <t>Country Cracker Banane-Choco</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-rande/p/7038624</t>
-        </is>
-      </c>
-      <c r="D289" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/country-cracker-banane-choco/p/6630295</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>4</v>
+      </c>
       <c r="E289" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>RIDUTO</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>2.27/100g</t>
+          <t>1.64/100g</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
@@ -20803,7 +20805,7 @@
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -20813,46 +20815,44 @@
       </c>
       <c r="L289" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="M289" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Rande 2.95 Schweizer Franken</t>
+          <t>Country Cracker Banane-Choco 3.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>6980179</t>
+          <t>7038624</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Karma Saaten Cracker Amaranth</t>
+          <t>Riduto Crisp Bread Rande</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-saaten-cracker-amaranth/p/6980179</t>
-        </is>
-      </c>
-      <c r="D290" t="n">
-        <v>2</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-rande/p/7038624</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr"/>
       <c r="E290" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>RIDUTO</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
@@ -20862,7 +20862,7 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>3.47/100g</t>
+          <t>2.27/100g</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
@@ -20872,7 +20872,7 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -20882,46 +20882,42 @@
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M290" t="inlineStr">
         <is>
-          <t>Karma Saaten Cracker Amaranth 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N290" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Riduto Crisp Bread Rande 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>6635317</t>
+          <t>6980179</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Prix Garantie Kakao Roulade</t>
+          <t>Karma Saaten Cracker Amaranth</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-kakao-roulade/p/6635317</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-saaten-cracker-amaranth/p/6980179</t>
         </is>
       </c>
       <c r="D291" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E291" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F291" t="inlineStr">
         <is>
@@ -20930,12 +20926,12 @@
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>0.65/100g</t>
+          <t>3.47/100g</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
@@ -20945,7 +20941,7 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -20955,18 +20951,22 @@
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M291" t="inlineStr">
         <is>
-          <t>Prix Garantie Kakao Roulade 2.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N291" t="inlineStr"/>
+          <t>Karma Saaten Cracker Amaranth 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N291" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -21035,45 +21035,43 @@
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>3570059</t>
+          <t>4005123</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Croustipâte Brick-Teigblätter 8 Stück</t>
+          <t>Bonne Maman Muffins Schokolade 16 Stück</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/croustipate-brick-teigblaetter-8-stueck/p/3570059</t>
-        </is>
-      </c>
-      <c r="D293" t="n">
-        <v>5</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-muffins-schokolade-16-stueck/p/4005123</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr"/>
       <c r="E293" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>Croustipâte</t>
+          <t>Bonne Maman</t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>2.43/100g</t>
+          <t>2.21/100g</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
@@ -21083,7 +21081,7 @@
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -21093,58 +21091,56 @@
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M293" t="inlineStr">
         <is>
-          <t>Croustipâte Brick-Teigblätter 8 Stück 3.30 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N293" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Bonne Maman Muffins Schokolade 16 Stück 5.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N293" t="inlineStr"/>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>4005123</t>
+          <t>3570059</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Bonne Maman Muffins Schokolade 16 Stück</t>
+          <t>Croustipâte Brick-Teigblätter 8 Stück</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-muffins-schokolade-16-stueck/p/4005123</t>
-        </is>
-      </c>
-      <c r="D294" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/croustipate-brick-teigblaetter-8-stueck/p/3570059</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>5</v>
+      </c>
       <c r="E294" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>Bonne Maman</t>
+          <t>Croustipâte</t>
         </is>
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>2.21/100g</t>
+          <t>2.43/100g</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
@@ -21154,7 +21150,7 @@
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
@@ -21164,18 +21160,22 @@
       </c>
       <c r="L294" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M294" t="inlineStr">
         <is>
-          <t>Bonne Maman Muffins Schokolade 16 Stück 5.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N294" t="inlineStr"/>
+          <t>Croustipâte Brick-Teigblätter 8 Stück 3.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N294" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -21248,7 +21248,7 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -21317,7 +21317,7 @@
       <c r="N296" t="inlineStr"/>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -21386,7 +21386,7 @@
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -21459,45 +21459,45 @@
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>6558121</t>
+          <t>6989654</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Country Cracker Dinkel</t>
+          <t>Bauckhof Brownies Backmischung</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/country-cracker-dinkel/p/6558121</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bauckhof-brownies-backmischung/p/6989654</t>
         </is>
       </c>
       <c r="D299" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E299" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Bauckhof</t>
         </is>
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>1.73/100g</t>
+          <t>1.13/100g</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
@@ -21507,7 +21507,7 @@
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -21517,56 +21517,60 @@
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M299" t="inlineStr">
         <is>
-          <t>Country Cracker Dinkel 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N299" t="inlineStr"/>
+          <t>Bauckhof Brownies Backmischung 4.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N299" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>6989654</t>
+          <t>6558121</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Bauckhof Brownies Backmischung</t>
+          <t>Country Cracker Dinkel</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bauckhof-brownies-backmischung/p/6989654</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/country-cracker-dinkel/p/6558121</t>
         </is>
       </c>
       <c r="D300" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E300" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>Bauckhof</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>1.13/100g</t>
+          <t>1.73/100g</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
@@ -21576,7 +21580,7 @@
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -21586,47 +21590,43 @@
       </c>
       <c r="L300" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M300" t="inlineStr">
         <is>
-          <t>Bauckhof Brownies Backmischung 4.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N300" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Country Cracker Dinkel 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>6533663</t>
+          <t>3040214</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Fine Food Sesame Rice Crackers</t>
+          <t>Bündner Nusstorte</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/fine-food-sesame-rice-crackers/p/6533663</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/buendner-nusstorte/p/3040214</t>
         </is>
       </c>
       <c r="D301" t="n">
+        <v>14</v>
+      </c>
+      <c r="E301" t="n">
         <v>3</v>
       </c>
-      <c r="E301" t="n">
-        <v>5</v>
-      </c>
       <c r="F301" t="inlineStr">
         <is>
           <t>Coop</t>
@@ -21634,12 +21634,12 @@
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>5.50/100g</t>
+          <t>1.70/100g</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
@@ -21649,7 +21649,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -21659,56 +21659,56 @@
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M301" t="inlineStr">
         <is>
-          <t>Fine Food Sesame Rice Crackers - Online kein Bestand 4.95 Schweizer Franken</t>
+          <t>Bündner Nusstorte 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>6151984</t>
+          <t>6533663</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Frischback-Brot Chia &amp;amp; Quinoa glutenfrei</t>
+          <t>Fine Food Sesame Rice Crackers</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-frischback-brot-chia-quinoa-glutenfrei/p/6151984</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/fine-food-sesame-rice-crackers/p/6533663</t>
         </is>
       </c>
       <c r="D302" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E302" t="n">
         <v>5</v>
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>Schnitzer</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>7.20</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>1.44/100g</t>
+          <t>5.50/100g</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
@@ -21718,7 +21718,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -21728,56 +21728,56 @@
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M302" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Frischback-Brot Chia &amp;amp; Quinoa glutenfrei 7.20 Schweizer Franken</t>
+          <t>Fine Food Sesame Rice Crackers - Online kein Bestand 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N302" t="inlineStr"/>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>5962343</t>
+          <t>6151984</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Veganz Bliss Ball Coconut 42G 3x  42g</t>
+          <t>Schnitzer Bio Frischback-Brot Chia &amp;amp; Quinoa glutenfrei</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/veganz-bliss-ball-coconut-42g/p/5962343</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-frischback-brot-chia-quinoa-glutenfrei/p/6151984</t>
         </is>
       </c>
       <c r="D303" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E303" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>Veganz</t>
+          <t>Schnitzer</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>7.20</t>
         </is>
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>5.48/100g</t>
+          <t>1.44/100g</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
@@ -21787,7 +21787,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>5.48</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -21797,60 +21797,56 @@
       </c>
       <c r="L303" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M303" t="inlineStr">
         <is>
-          <t>Veganz Bliss Ball Coconut 42G 3x  42g 6.90 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N303" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Schnitzer Bio Frischback-Brot Chia &amp;amp; Quinoa glutenfrei 7.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>6603471</t>
+          <t>5962343</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Baguette Rustic glutenfrei</t>
+          <t>Veganz Bliss Ball Coconut 42G 3x  42g</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-baguette-rustic-glutenfrei/p/6603471</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/veganz-bliss-ball-coconut-42g/p/5962343</t>
         </is>
       </c>
       <c r="D304" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E304" t="n">
         <v>3.5</v>
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>Schnitzer</t>
+          <t>Veganz</t>
         </is>
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>1.75/100g</t>
+          <t>5.48/100g</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
@@ -21860,7 +21856,7 @@
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>5.48</t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
@@ -21870,56 +21866,60 @@
       </c>
       <c r="L304" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M304" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Baguette Rustic glutenfrei 5.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N304" t="inlineStr"/>
+          <t>Veganz Bliss Ball Coconut 42G 3x  42g 6.90 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N304" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>3465424</t>
+          <t>6603471</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Hug Tartelettes-Bödeli 175G</t>
+          <t>Schnitzer Bio Baguette Rustic glutenfrei</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/hug-tartelettes-boedeli-175g/p/3465424</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-baguette-rustic-glutenfrei/p/6603471</t>
         </is>
       </c>
       <c r="D305" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E305" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>Hug</t>
+          <t>Schnitzer</t>
         </is>
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>2.17/100g</t>
+          <t>1.75/100g</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
@@ -21929,7 +21929,7 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -21939,56 +21939,56 @@
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M305" t="inlineStr">
         <is>
-          <t>Hug Tartelettes-Bödeli 175G 3.80 Schweizer Franken</t>
+          <t>Schnitzer Bio Baguette Rustic glutenfrei 5.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>3040214</t>
+          <t>3465424</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Bündner Nusstorte</t>
+          <t>Hug Tartelettes-Bödeli 175G</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/buendner-nusstorte/p/3040214</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/hug-tartelettes-boedeli-175g/p/3465424</t>
         </is>
       </c>
       <c r="D306" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E306" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Hug</t>
         </is>
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>1.70/100g</t>
+          <t>2.17/100g</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
@@ -21998,7 +21998,7 @@
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -22008,56 +22008,56 @@
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
         </is>
       </c>
       <c r="M306" t="inlineStr">
         <is>
-          <t>Bündner Nusstorte 5.95 Schweizer Franken</t>
+          <t>Hug Tartelettes-Bödeli 175G 3.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>6775942</t>
+          <t>6828661</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Mezeast Chicken Shawarma Wrap Kit</t>
+          <t>Birnenweggli</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-chicken-shawarma-wrap-kit/p/6775942</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/birnenweggli/p/6828661</t>
         </is>
       </c>
       <c r="D307" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E307" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>MEZEAST</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>1.88/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
@@ -22067,7 +22067,7 @@
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -22077,56 +22077,56 @@
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M307" t="inlineStr">
         <is>
-          <t>Mezeast Chicken Shawarma Wrap Kit 6.95 Schweizer Franken</t>
+          <t>Birnenweggli 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>6828661</t>
+          <t>6775942</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Birnenweggli</t>
+          <t>Mezeast Chicken Shawarma Wrap Kit</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/birnenweggli/p/6828661</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-chicken-shawarma-wrap-kit/p/6775942</t>
         </is>
       </c>
       <c r="D308" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E308" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>MEZEAST</t>
         </is>
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>1.88/100g</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
@@ -22136,7 +22136,7 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -22146,18 +22146,18 @@
       </c>
       <c r="L308" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M308" t="inlineStr">
         <is>
-          <t>Birnenweggli 4.95 Schweizer Franken</t>
+          <t>Mezeast Chicken Shawarma Wrap Kit 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -22226,7 +22226,7 @@
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -22297,7 +22297,7 @@
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -22366,7 +22366,7 @@
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -22437,7 +22437,7 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -22510,7 +22510,7 @@
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -22583,7 +22583,7 @@
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -22656,7 +22656,7 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -22725,7 +22725,7 @@
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -22798,7 +22798,7 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -22867,45 +22867,45 @@
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>6151960</t>
+          <t>6729401</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Rustico und Amaranth glutenfrei</t>
+          <t>Roland Sport Plus Nature</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-rustico-und-amaranth-glutenfrei/p/6151960</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/roland-sport-plus-nature/p/6729401</t>
         </is>
       </c>
       <c r="D319" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E319" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>Schnitzer</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G319" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>2.16/100g</t>
+          <t>3.20/100g</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
@@ -22915,7 +22915,7 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -22925,56 +22925,56 @@
       </c>
       <c r="L319" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M319" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Rustico und Amaranth glutenfrei 6.90 Schweizer Franken</t>
+          <t>Roland Sport Plus Nature 4.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>6729401</t>
+          <t>6151960</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Roland Sport Plus Nature</t>
+          <t>Schnitzer Bio Rustico und Amaranth glutenfrei</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/roland-sport-plus-nature/p/6729401</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-rustico-und-amaranth-glutenfrei/p/6151960</t>
         </is>
       </c>
       <c r="D320" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E320" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Schnitzer</t>
         </is>
       </c>
       <c r="G320" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>3.20/100g</t>
+          <t>2.16/100g</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
@@ -22984,7 +22984,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
@@ -22994,18 +22994,18 @@
       </c>
       <c r="L320" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M320" t="inlineStr">
         <is>
-          <t>Roland Sport Plus Nature 4.80 Schweizer Franken</t>
+          <t>Schnitzer Bio Rustico und Amaranth glutenfrei 6.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -23074,7 +23074,7 @@
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -23143,7 +23143,7 @@
       <c r="N322" t="inlineStr"/>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -23216,7 +23216,7 @@
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -23289,7 +23289,7 @@
       </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -23356,7 +23356,7 @@
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -23423,7 +23423,7 @@
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -23492,7 +23492,7 @@
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -23561,7 +23561,7 @@
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -23634,45 +23634,45 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>3040290</t>
+          <t>5825322</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Heumann Mazzen-Schnitten Koscher</t>
+          <t>Naturaplan Bio Aprikosenrollen 3x60g</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/heumann-mazzen-schnitten-koscher/p/3040290</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-aprikosenrollen-3x60g/p/5825322</t>
         </is>
       </c>
       <c r="D330" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E330" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>Heumann</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G330" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>1.71/100g</t>
+          <t>1.44/100g</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
@@ -23682,7 +23682,7 @@
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
@@ -23692,56 +23692,56 @@
       </c>
       <c r="L330" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M330" t="inlineStr">
         <is>
-          <t>Heumann Mazzen-Schnitten Koscher 7.70 Schweizer Franken</t>
+          <t>Naturaplan Bio Aprikosenrollen 3x60g 16% Aktion 2.60 Schweizer Franken statt 3.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>5825322</t>
+          <t>3040290</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Aprikosenrollen 3x60g</t>
+          <t>Heumann Mazzen-Schnitten Koscher</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-aprikosenrollen-3x60g/p/5825322</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/heumann-mazzen-schnitten-koscher/p/3040290</t>
         </is>
       </c>
       <c r="D331" t="n">
+        <v>2</v>
+      </c>
+      <c r="E331" t="n">
         <v>5</v>
       </c>
-      <c r="E331" t="n">
-        <v>4</v>
-      </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Heumann</t>
         </is>
       </c>
       <c r="G331" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>1.44/100g</t>
+          <t>1.71/100g</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
@@ -23751,7 +23751,7 @@
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="K331" t="inlineStr">
@@ -23761,18 +23761,18 @@
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M331" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Aprikosenrollen 3x60g 16% Aktion 2.60 Schweizer Franken statt 3.10 Schweizer Franken</t>
+          <t>Heumann Mazzen-Schnitten Koscher 7.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -23841,7 +23841,7 @@
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -23908,7 +23908,7 @@
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
@@ -23977,7 +23977,7 @@
       <c r="N334" t="inlineStr"/>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2023-02-03 12:56:15</t>
+          <t>2023-02-03 20:49:11</t>
         </is>
       </c>
     </row>
